--- a/migforecasting/less100/inputcheckNY.xlsx
+++ b/migforecasting/less100/inputcheckNY.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="NextYear" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -141,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -163,6 +163,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -815,7 +818,7 @@
       <c r="Q6" s="4">
         <v>598.67388730140499</v>
       </c>
-      <c r="R6" s="4">
+      <c r="R6" s="5">
         <f t="shared" si="0"/>
         <v>429.67388730140499</v>
       </c>
@@ -1100,7 +1103,7 @@
       <c r="Q11" s="4">
         <v>651.33968453537489</v>
       </c>
-      <c r="R11" s="4">
+      <c r="R11" s="5">
         <f t="shared" si="0"/>
         <v>439.33968453537489</v>
       </c>
@@ -1328,7 +1331,7 @@
       <c r="Q15" s="4">
         <v>205.5004686249855</v>
       </c>
-      <c r="R15" s="5">
+      <c r="R15" s="8">
         <f t="shared" si="0"/>
         <v>268.5004686249855</v>
       </c>
@@ -1385,7 +1388,7 @@
       <c r="Q16" s="4">
         <v>792.25573208366586</v>
       </c>
-      <c r="R16" s="4">
+      <c r="R16" s="5">
         <f t="shared" si="0"/>
         <v>453.25573208366586</v>
       </c>
